--- a/_protected/backend/web/uploads/doc/Laporan_Musrenbang.xlsx
+++ b/_protected/backend/web/uploads/doc/Laporan_Musrenbang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="590">
   <si>
     <t>DAFTAR USULAN PESERTA MUSRENBANG</t>
   </si>
@@ -128,6 +128,9 @@
     <t>1 paket</t>
   </si>
   <si>
+    <t>3000000000</t>
+  </si>
+  <si>
     <t>Pavingnisasi</t>
   </si>
   <si>
@@ -221,6 +224,9 @@
     <t xml:space="preserve">2km x 6m </t>
   </si>
   <si>
+    <t>12000000000</t>
+  </si>
+  <si>
     <t>Lampu Penerangan Jalan</t>
   </si>
   <si>
@@ -794,6 +800,9 @@
     <t>6300 M"</t>
   </si>
   <si>
+    <t>2677500000</t>
+  </si>
+  <si>
     <t>Jaringan Pipa Air Bersih (PDAM)</t>
   </si>
   <si>
@@ -848,6 +857,9 @@
     <t>5M x 2300M</t>
   </si>
   <si>
+    <t>6037500000</t>
+  </si>
+  <si>
     <t>Jl.Kedaung</t>
   </si>
   <si>
@@ -1037,6 +1049,9 @@
     <t>1800 M2</t>
   </si>
   <si>
+    <t>6300000000</t>
+  </si>
+  <si>
     <t>Pujawali</t>
   </si>
   <si>
@@ -1385,6 +1400,9 @@
     <t>1 Unit</t>
   </si>
   <si>
+    <t>2500000000</t>
+  </si>
+  <si>
     <t>Persiapan Lomba Sekolah Sehat Tingkat Nasional</t>
   </si>
   <si>
@@ -1517,6 +1535,9 @@
     <t>pemavingan Halaman Sekolah</t>
   </si>
   <si>
+    <t>2660000000</t>
+  </si>
+  <si>
     <t>SDN 7 Benoa</t>
   </si>
   <si>
@@ -1692,6 +1713,9 @@
   </si>
   <si>
     <t>5480m2</t>
+  </si>
+  <si>
+    <t>2393000000</t>
   </si>
   <si>
     <t>Kegiatan Nusa Dua Culture Festival</t>
@@ -2468,8 +2492,8 @@
       <c r="H18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="4">
-        <v>3000000000</v>
+      <c r="I18" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2477,10 +2501,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>15</v>
@@ -2489,7 +2513,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I19" s="4">
         <v>180000000</v>
@@ -2500,10 +2524,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>15</v>
@@ -2512,7 +2536,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I20" s="4">
         <v>48000000</v>
@@ -2523,10 +2547,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>15</v>
@@ -2535,7 +2559,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I21" s="4">
         <v>24000000</v>
@@ -2546,10 +2570,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>15</v>
@@ -2558,7 +2582,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" s="4">
         <v>400000000</v>
@@ -2572,7 +2596,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>15</v>
@@ -2581,7 +2605,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" s="4">
         <v>37500000</v>
@@ -2595,7 +2619,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>15</v>
@@ -2604,7 +2628,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" s="4">
         <v>180000000</v>
@@ -2615,10 +2639,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>15</v>
@@ -2627,7 +2651,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I25" s="4">
         <v>45000000</v>
@@ -2638,10 +2662,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>15</v>
@@ -2650,7 +2674,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I26" s="4">
         <v>30000000</v>
@@ -2661,10 +2685,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>15</v>
@@ -2673,7 +2697,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I27" s="4">
         <v>45000000</v>
@@ -2684,10 +2708,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>15</v>
@@ -2707,10 +2731,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>15</v>
@@ -2721,8 +2745,8 @@
       <c r="H29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="4">
-        <v>3000000000</v>
+      <c r="I29" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2730,10 +2754,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>15</v>
@@ -2753,10 +2777,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>15</v>
@@ -2765,7 +2789,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I31" s="4">
         <v>36000000</v>
@@ -2776,10 +2800,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>15</v>
@@ -2788,10 +2812,10 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="4">
-        <v>12000000000</v>
+        <v>68</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2799,10 +2823,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>15</v>
@@ -2811,7 +2835,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I33" s="4">
         <v>1125000000</v>
@@ -2825,7 +2849,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>15</v>
@@ -2834,7 +2858,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I34" s="4">
         <v>1000000000</v>
@@ -2848,7 +2872,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>15</v>
@@ -2857,7 +2881,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I35" s="4">
         <v>63000000</v>
@@ -2868,10 +2892,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>15</v>
@@ -2880,7 +2904,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I36" s="4">
         <v>30000000</v>
@@ -2891,10 +2915,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2903,7 +2927,7 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I37" s="4">
         <v>750000000</v>
@@ -2914,10 +2938,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>15</v>
@@ -2926,7 +2950,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I38" s="4">
         <v>30000000</v>
@@ -2937,10 +2961,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>15</v>
@@ -2949,7 +2973,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I39" s="4">
         <v>30000000</v>
@@ -2960,10 +2984,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2972,7 +2996,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4">
         <v>500000000</v>
@@ -2983,10 +3007,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>15</v>
@@ -2995,7 +3019,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I41" s="4">
         <v>100000000</v>
@@ -3006,10 +3030,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3018,7 +3042,7 @@
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I42" s="4">
         <v>75000000</v>
@@ -3029,10 +3053,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>15</v>
@@ -3041,7 +3065,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I43" s="4">
         <v>800000000</v>
@@ -3052,10 +3076,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>15</v>
@@ -3064,7 +3088,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I44" s="4">
         <v>7500000</v>
@@ -3075,10 +3099,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>15</v>
@@ -3087,7 +3111,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I45" s="4">
         <v>15000000</v>
@@ -3098,10 +3122,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>15</v>
@@ -3110,7 +3134,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I46" s="4">
         <v>15000000</v>
@@ -3121,10 +3145,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>15</v>
@@ -3133,7 +3157,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I47" s="4">
         <v>90000000</v>
@@ -3144,10 +3168,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>15</v>
@@ -3156,7 +3180,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I48" s="4">
         <v>120000000</v>
@@ -3167,10 +3191,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3179,7 +3203,7 @@
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I49" s="4">
         <v>150000000</v>
@@ -3190,10 +3214,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3202,10 +3226,10 @@
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" s="4">
-        <v>3000000000</v>
+        <v>113</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3213,10 +3237,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3225,7 +3249,7 @@
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I51" s="4">
         <v>750000000</v>
@@ -3236,10 +3260,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>15</v>
@@ -3248,7 +3272,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I52" s="4">
         <v>1000000000</v>
@@ -3259,10 +3283,10 @@
         <v>45</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -3271,7 +3295,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I53" s="4">
         <v>2000000000</v>
@@ -3282,10 +3306,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -3294,7 +3318,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I54" s="4">
         <v>1000000000</v>
@@ -3305,10 +3329,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -3317,7 +3341,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I55" s="4">
         <v>25000000</v>
@@ -3328,10 +3352,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -3340,7 +3364,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I56" s="4">
         <v>80000000</v>
@@ -3351,10 +3375,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3363,7 +3387,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I57" s="4">
         <v>20000000</v>
@@ -3374,10 +3398,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3386,7 +3410,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I58" s="4">
         <v>20000000</v>
@@ -3397,10 +3421,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -3409,7 +3433,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I59" s="4">
         <v>25000000</v>
@@ -3420,10 +3444,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3432,7 +3456,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I60" s="4">
         <v>120000000</v>
@@ -3443,10 +3467,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3455,7 +3479,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I61" s="4">
         <v>150000000</v>
@@ -3466,10 +3490,10 @@
         <v>54</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -3478,7 +3502,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I62" s="4">
         <v>100000000</v>
@@ -3489,10 +3513,10 @@
         <v>55</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>15</v>
@@ -3501,7 +3525,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I63" s="4">
         <v>25000000</v>
@@ -3512,10 +3536,10 @@
         <v>56</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>15</v>
@@ -3524,7 +3548,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I64" s="4">
         <v>20000000</v>
@@ -3535,10 +3559,10 @@
         <v>57</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3547,7 +3571,7 @@
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I65" s="4">
         <v>500000000</v>
@@ -3558,10 +3582,10 @@
         <v>58</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>15</v>
@@ -3570,7 +3594,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I66" s="4">
         <v>1000000000</v>
@@ -3581,10 +3605,10 @@
         <v>59</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>15</v>
@@ -3593,7 +3617,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I67" s="4">
         <v>25000000</v>
@@ -3604,10 +3628,10 @@
         <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>15</v>
@@ -3616,7 +3640,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I68" s="4">
         <v>30000000</v>
@@ -3627,10 +3651,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>15</v>
@@ -3639,7 +3663,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I69" s="4">
         <v>40000000</v>
@@ -3650,10 +3674,10 @@
         <v>62</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
@@ -3662,7 +3686,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I70" s="4">
         <v>1000000000</v>
@@ -3673,10 +3697,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
@@ -3685,7 +3709,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I71" s="4">
         <v>400000000</v>
@@ -3696,10 +3720,10 @@
         <v>64</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>15</v>
@@ -3708,7 +3732,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I72" s="4">
         <v>35000000</v>
@@ -3719,10 +3743,10 @@
         <v>65</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
@@ -3731,7 +3755,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I73" s="4">
         <v>65000000</v>
@@ -3742,10 +3766,10 @@
         <v>66</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -3754,7 +3778,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I74" s="4">
         <v>15000000</v>
@@ -3765,10 +3789,10 @@
         <v>67</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -3777,7 +3801,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I75" s="4">
         <v>60000000</v>
@@ -3788,10 +3812,10 @@
         <v>68</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -3800,7 +3824,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I76" s="4">
         <v>30000000</v>
@@ -3811,10 +3835,10 @@
         <v>69</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -3823,7 +3847,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I77" s="4">
         <v>35000000</v>
@@ -3834,10 +3858,10 @@
         <v>70</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -3846,7 +3870,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I78" s="4">
         <v>40000000</v>
@@ -3857,10 +3881,10 @@
         <v>71</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>15</v>
@@ -3869,7 +3893,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I79" s="4">
         <v>24000000</v>
@@ -3880,10 +3904,10 @@
         <v>72</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -3892,7 +3916,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I80" s="4">
         <v>40000000</v>
@@ -3903,10 +3927,10 @@
         <v>73</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -3915,7 +3939,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I81" s="4">
         <v>30000000</v>
@@ -3926,10 +3950,10 @@
         <v>74</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -3938,7 +3962,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I82" s="4">
         <v>45000000</v>
@@ -3949,10 +3973,10 @@
         <v>75</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -3961,7 +3985,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I83" s="4">
         <v>30000000</v>
@@ -3972,10 +3996,10 @@
         <v>76</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
@@ -3984,7 +4008,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I84" s="4">
         <v>20000000</v>
@@ -3995,10 +4019,10 @@
         <v>77</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4007,7 +4031,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I85" s="4">
         <v>500000000</v>
@@ -4018,10 +4042,10 @@
         <v>78</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4030,7 +4054,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I86" s="4">
         <v>1000000000</v>
@@ -4041,10 +4065,10 @@
         <v>79</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4053,7 +4077,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I87" s="4">
         <v>30000000</v>
@@ -4064,10 +4088,10 @@
         <v>80</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4076,7 +4100,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I88" s="4">
         <v>200000000</v>
@@ -4087,10 +4111,10 @@
         <v>81</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
@@ -4099,7 +4123,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I89" s="4">
         <v>50000000</v>
@@ -4110,10 +4134,10 @@
         <v>82</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4131,10 +4155,10 @@
         <v>83</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
@@ -4143,7 +4167,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I91" s="4">
         <v>300000000</v>
@@ -4154,10 +4178,10 @@
         <v>84</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4166,7 +4190,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I92" s="4">
         <v>250000000</v>
@@ -4177,10 +4201,10 @@
         <v>85</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
@@ -4189,7 +4213,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I93" s="4">
         <v>500000000</v>
@@ -4200,10 +4224,10 @@
         <v>86</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4212,7 +4236,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I94" s="4">
         <v>10000000</v>
@@ -4223,10 +4247,10 @@
         <v>87</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4235,7 +4259,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I95" s="4">
         <v>20000000</v>
@@ -4246,10 +4270,10 @@
         <v>88</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4258,7 +4282,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I96" s="4">
         <v>40000000</v>
@@ -4269,10 +4293,10 @@
         <v>89</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4281,7 +4305,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I97" s="4">
         <v>75000000</v>
@@ -4292,10 +4316,10 @@
         <v>90</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -4304,7 +4328,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I98" s="4">
         <v>15000000</v>
@@ -4315,10 +4339,10 @@
         <v>91</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4327,7 +4351,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I99" s="4">
         <v>500000000</v>
@@ -4338,10 +4362,10 @@
         <v>92</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4350,7 +4374,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I100" s="4">
         <v>1500000000</v>
@@ -4361,10 +4385,10 @@
         <v>93</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
@@ -4382,10 +4406,10 @@
         <v>94</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4403,10 +4427,10 @@
         <v>95</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
@@ -4424,10 +4448,10 @@
         <v>96</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
@@ -4445,10 +4469,10 @@
         <v>97</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -4466,10 +4490,10 @@
         <v>98</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -4487,10 +4511,10 @@
         <v>99</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -4499,7 +4523,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I107" s="4">
         <v>1000000000</v>
@@ -4510,10 +4534,10 @@
         <v>100</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
@@ -4522,7 +4546,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I108" s="4">
         <v>1000000000</v>
@@ -4533,10 +4557,10 @@
         <v>101</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
@@ -4545,7 +4569,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I109" s="4">
         <v>80000000</v>
@@ -4556,10 +4580,10 @@
         <v>102</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
@@ -4568,7 +4592,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I110" s="4">
         <v>90000000</v>
@@ -4579,10 +4603,10 @@
         <v>103</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>15</v>
@@ -4591,7 +4615,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I111" s="4">
         <v>150000000</v>
@@ -4602,10 +4626,10 @@
         <v>104</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>15</v>
@@ -4614,7 +4638,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I112" s="4">
         <v>50000000</v>
@@ -4625,10 +4649,10 @@
         <v>105</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>15</v>
@@ -4637,7 +4661,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I113" s="4">
         <v>75000000</v>
@@ -4648,10 +4672,10 @@
         <v>106</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>15</v>
@@ -4660,7 +4684,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I114" s="4">
         <v>300000000</v>
@@ -4671,10 +4695,10 @@
         <v>107</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>15</v>
@@ -4683,7 +4707,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I115" s="4">
         <v>50000000</v>
@@ -4694,10 +4718,10 @@
         <v>108</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -4706,7 +4730,7 @@
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I116" s="4">
         <v>150000000</v>
@@ -4717,10 +4741,10 @@
         <v>109</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>15</v>
@@ -4729,7 +4753,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I117" s="4">
         <v>170000000</v>
@@ -4740,10 +4764,10 @@
         <v>110</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>15</v>
@@ -4752,7 +4776,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I118" s="4">
         <v>50000000</v>
@@ -4763,10 +4787,10 @@
         <v>111</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>15</v>
@@ -4775,7 +4799,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I119" s="4">
         <v>41600000</v>
@@ -4786,10 +4810,10 @@
         <v>112</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>15</v>
@@ -4798,10 +4822,10 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I120" s="4">
-        <v>2677500000</v>
+        <v>260</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4809,10 +4833,10 @@
         <v>113</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
@@ -4821,7 +4845,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I121" s="4">
         <v>74375000</v>
@@ -4832,10 +4856,10 @@
         <v>114</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>15</v>
@@ -4844,7 +4868,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I122" s="4">
         <v>84375000</v>
@@ -4855,10 +4879,10 @@
         <v>115</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>15</v>
@@ -4867,7 +4891,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I123" s="4">
         <v>20625000</v>
@@ -4878,10 +4902,10 @@
         <v>116</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
@@ -4890,7 +4914,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I124" s="4">
         <v>106250000</v>
@@ -4901,10 +4925,10 @@
         <v>117</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>15</v>
@@ -4913,7 +4937,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I125" s="4">
         <v>375000000</v>
@@ -4924,10 +4948,10 @@
         <v>118</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>15</v>
@@ -4936,7 +4960,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I126" s="4">
         <v>1706250000</v>
@@ -4947,10 +4971,10 @@
         <v>119</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>15</v>
@@ -4959,7 +4983,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I127" s="4">
         <v>1798250000</v>
@@ -4970,10 +4994,10 @@
         <v>120</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>15</v>
@@ -4982,10 +5006,10 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I128" s="4">
-        <v>6037500000</v>
+        <v>279</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4993,10 +5017,10 @@
         <v>121</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>15</v>
@@ -5005,7 +5029,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I129" s="4">
         <v>1209375000</v>
@@ -5016,10 +5040,10 @@
         <v>122</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>15</v>
@@ -5028,7 +5052,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I130" s="4">
         <v>67500000</v>
@@ -5039,10 +5063,10 @@
         <v>123</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>15</v>
@@ -5051,7 +5075,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I131" s="4">
         <v>37500000</v>
@@ -5062,10 +5086,10 @@
         <v>124</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>15</v>
@@ -5074,7 +5098,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I132" s="4">
         <v>10500000</v>
@@ -5085,10 +5109,10 @@
         <v>125</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>15</v>
@@ -5097,7 +5121,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I133" s="4">
         <v>14000000</v>
@@ -5108,10 +5132,10 @@
         <v>126</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>15</v>
@@ -5120,7 +5144,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I134" s="4">
         <v>40000000</v>
@@ -5131,10 +5155,10 @@
         <v>127</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>15</v>
@@ -5143,7 +5167,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I135" s="4">
         <v>342400000</v>
@@ -5154,10 +5178,10 @@
         <v>128</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>15</v>
@@ -5166,7 +5190,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I136" s="4">
         <v>76808000</v>
@@ -5177,10 +5201,10 @@
         <v>129</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>15</v>
@@ -5189,7 +5213,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I137" s="4">
         <v>48000000</v>
@@ -5200,10 +5224,10 @@
         <v>130</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>15</v>
@@ -5212,7 +5236,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I138" s="4">
         <v>493200000</v>
@@ -5223,10 +5247,10 @@
         <v>131</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
@@ -5235,7 +5259,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I139" s="4">
         <v>100000000</v>
@@ -5246,10 +5270,10 @@
         <v>132</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>15</v>
@@ -5258,7 +5282,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I140" s="4">
         <v>54400000</v>
@@ -5269,10 +5293,10 @@
         <v>133</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>15</v>
@@ -5281,7 +5305,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I141" s="4">
         <v>73600000</v>
@@ -5292,10 +5316,10 @@
         <v>134</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>15</v>
@@ -5304,7 +5328,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I142" s="4">
         <v>48000000</v>
@@ -5315,10 +5339,10 @@
         <v>135</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>15</v>
@@ -5327,7 +5351,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I143" s="4">
         <v>80000000</v>
@@ -5338,10 +5362,10 @@
         <v>136</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>15</v>
@@ -5350,7 +5374,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I144" s="4">
         <v>374400000</v>
@@ -5361,10 +5385,10 @@
         <v>137</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>15</v>
@@ -5373,7 +5397,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="I145" s="4">
         <v>310400000</v>
@@ -5384,10 +5408,10 @@
         <v>138</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>15</v>
@@ -5396,7 +5420,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I146" s="4">
         <v>220800000</v>
@@ -5407,10 +5431,10 @@
         <v>139</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>15</v>
@@ -5419,7 +5443,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I147" s="4">
         <v>246400000</v>
@@ -5430,10 +5454,10 @@
         <v>140</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>15</v>
@@ -5442,7 +5466,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I148" s="4">
         <v>49920000</v>
@@ -5453,10 +5477,10 @@
         <v>141</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>15</v>
@@ -5465,7 +5489,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I149" s="4">
         <v>106560000</v>
@@ -5476,10 +5500,10 @@
         <v>142</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>15</v>
@@ -5488,7 +5512,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I150" s="4">
         <v>241920000</v>
@@ -5499,10 +5523,10 @@
         <v>143</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>15</v>
@@ -5511,7 +5535,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I151" s="4">
         <v>76800000</v>
@@ -5522,10 +5546,10 @@
         <v>144</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>15</v>
@@ -5534,7 +5558,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I152" s="4">
         <v>94720000</v>
@@ -5545,10 +5569,10 @@
         <v>145</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>15</v>
@@ -5557,7 +5581,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I153" s="4">
         <v>48640000</v>
@@ -5568,10 +5592,10 @@
         <v>146</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>15</v>
@@ -5580,7 +5604,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I154" s="4">
         <v>112000000</v>
@@ -5591,10 +5615,10 @@
         <v>147</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>15</v>
@@ -5603,7 +5627,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I155" s="4">
         <v>60000000</v>
@@ -5614,10 +5638,10 @@
         <v>148</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>15</v>
@@ -5626,7 +5650,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I156" s="4">
         <v>900000000</v>
@@ -5637,10 +5661,10 @@
         <v>149</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>15</v>
@@ -5649,7 +5673,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I157" s="4">
         <v>8000000</v>
@@ -5660,10 +5684,10 @@
         <v>150</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>15</v>
@@ -5672,7 +5696,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I158" s="4">
         <v>32000000</v>
@@ -5683,10 +5707,10 @@
         <v>151</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>15</v>
@@ -5695,10 +5719,10 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="I159" s="4">
-        <v>6300000000</v>
+        <v>343</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5706,10 +5730,10 @@
         <v>152</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>15</v>
@@ -5729,10 +5753,10 @@
         <v>153</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>15</v>
@@ -5752,10 +5776,10 @@
         <v>154</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>15</v>
@@ -5775,10 +5799,10 @@
         <v>155</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>15</v>
@@ -5787,7 +5811,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="I163" s="4">
         <v>144000000</v>
@@ -5798,10 +5822,10 @@
         <v>156</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>15</v>
@@ -5810,7 +5834,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="I164" s="4">
         <v>450000000</v>
@@ -5821,10 +5845,10 @@
         <v>157</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>15</v>
@@ -5833,7 +5857,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="I165" s="4">
         <v>60000000</v>
@@ -5844,10 +5868,10 @@
         <v>158</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>15</v>
@@ -5856,7 +5880,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="I166" s="4">
         <v>100000000</v>
@@ -5867,10 +5891,10 @@
         <v>159</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>15</v>
@@ -5890,10 +5914,10 @@
         <v>160</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>15</v>
@@ -5902,7 +5926,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I168" s="4">
         <v>40000000</v>
@@ -5913,10 +5937,10 @@
         <v>161</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>15</v>
@@ -5925,7 +5949,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="I169" s="4">
         <v>150000000</v>
@@ -5936,10 +5960,10 @@
         <v>162</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>15</v>
@@ -5948,7 +5972,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="I170" s="4">
         <v>20000000</v>
@@ -5959,10 +5983,10 @@
         <v>163</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>15</v>
@@ -5971,7 +5995,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="I171" s="4">
         <v>150000000</v>
@@ -5982,10 +6006,10 @@
         <v>164</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -5994,7 +6018,7 @@
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="I172" s="4">
         <v>800000000</v>
@@ -6005,10 +6029,10 @@
         <v>165</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
@@ -6017,7 +6041,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I173" s="4">
         <v>30000000</v>
@@ -6028,10 +6052,10 @@
         <v>166</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>15</v>
@@ -6040,7 +6064,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I174" s="4">
         <v>25000000</v>
@@ -6051,10 +6075,10 @@
         <v>167</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>15</v>
@@ -6074,10 +6098,10 @@
         <v>168</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>15</v>
@@ -6086,7 +6110,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="I176" s="4">
         <v>200000000</v>
@@ -6097,10 +6121,10 @@
         <v>169</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>15</v>
@@ -6109,7 +6133,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I177" s="4">
         <v>10000000</v>
@@ -6120,10 +6144,10 @@
         <v>170</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>15</v>
@@ -6132,7 +6156,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I178" s="4">
         <v>30000000</v>
@@ -6143,10 +6167,10 @@
         <v>171</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>15</v>
@@ -6166,10 +6190,10 @@
         <v>172</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>15</v>
@@ -6189,10 +6213,10 @@
         <v>173</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>15</v>
@@ -6212,10 +6236,10 @@
         <v>174</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>15</v>
@@ -6224,7 +6248,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I182" s="4">
         <v>1150000000</v>
@@ -6235,10 +6259,10 @@
         <v>175</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>15</v>
@@ -6258,10 +6282,10 @@
         <v>176</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>15</v>
@@ -6281,10 +6305,10 @@
         <v>177</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>15</v>
@@ -6293,7 +6317,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="I185" s="4">
         <v>100000000</v>
@@ -6304,10 +6328,10 @@
         <v>178</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>15</v>
@@ -6316,7 +6340,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="I186" s="4">
         <v>600000000</v>
@@ -6327,10 +6351,10 @@
         <v>179</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>15</v>
@@ -6350,10 +6374,10 @@
         <v>180</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>15</v>
@@ -6373,10 +6397,10 @@
         <v>181</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>15</v>
@@ -6396,10 +6420,10 @@
         <v>182</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>15</v>
@@ -6419,10 +6443,10 @@
         <v>183</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>15</v>
@@ -6431,7 +6455,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="I191" s="4">
         <v>500000000</v>
@@ -6442,10 +6466,10 @@
         <v>184</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -6454,7 +6478,7 @@
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="I192" s="4">
         <v>180000000</v>
@@ -6465,10 +6489,10 @@
         <v>185</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>15</v>
@@ -6488,10 +6512,10 @@
         <v>186</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>15</v>
@@ -6511,10 +6535,10 @@
         <v>187</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>15</v>
@@ -6525,8 +6549,8 @@
       <c r="H195" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I195" s="4">
-        <v>3000000000</v>
+      <c r="I195" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6534,10 +6558,10 @@
         <v>188</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
@@ -6546,7 +6570,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="I196" s="4">
         <v>13000000</v>
@@ -6557,10 +6581,10 @@
         <v>189</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>15</v>
@@ -6569,7 +6593,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="I197" s="4">
         <v>100000000</v>
@@ -6580,10 +6604,10 @@
         <v>190</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>15</v>
@@ -6603,10 +6627,10 @@
         <v>191</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>15</v>
@@ -6615,7 +6639,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="I199" s="4">
         <v>160800000</v>
@@ -6626,10 +6650,10 @@
         <v>192</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>15</v>
@@ -6638,7 +6662,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="I200" s="4">
         <v>21600000</v>
@@ -6649,10 +6673,10 @@
         <v>193</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>15</v>
@@ -6661,7 +6685,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="I201" s="4">
         <v>40000000</v>
@@ -6672,10 +6696,10 @@
         <v>194</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>15</v>
@@ -6684,7 +6708,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="I202" s="4">
         <v>27000000</v>
@@ -6695,10 +6719,10 @@
         <v>195</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>15</v>
@@ -6707,7 +6731,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="I203" s="4">
         <v>16000000</v>
@@ -6718,10 +6742,10 @@
         <v>196</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>15</v>
@@ -6730,7 +6754,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="I204" s="4">
         <v>1600000</v>
@@ -6741,10 +6765,10 @@
         <v>197</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>15</v>
@@ -6753,7 +6777,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="I205" s="4">
         <v>8000000</v>
@@ -6764,10 +6788,10 @@
         <v>198</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -6776,7 +6800,7 @@
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="3" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="I206" s="4">
         <v>80000000</v>
@@ -6787,10 +6811,10 @@
         <v>199</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>15</v>
@@ -6799,7 +6823,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="I207" s="4">
         <v>70000000</v>
@@ -6810,10 +6834,10 @@
         <v>200</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>15</v>
@@ -6822,7 +6846,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I208" s="4">
         <v>60000000</v>
@@ -6833,10 +6857,10 @@
         <v>201</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>15</v>
@@ -6845,7 +6869,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="I209" s="4">
         <v>30000000</v>
@@ -6856,10 +6880,10 @@
         <v>202</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>15</v>
@@ -6868,7 +6892,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I210" s="4">
         <v>60000000</v>
@@ -6879,10 +6903,10 @@
         <v>203</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>15</v>
@@ -6891,7 +6915,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="I211" s="4">
         <v>30000000</v>
@@ -6902,10 +6926,10 @@
         <v>204</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>15</v>
@@ -6914,7 +6938,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="I212" s="4">
         <v>90000000</v>
@@ -6925,10 +6949,10 @@
         <v>205</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>15</v>
@@ -6937,7 +6961,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="I213" s="4">
         <v>90000000</v>
@@ -6948,10 +6972,10 @@
         <v>206</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -6971,10 +6995,10 @@
         <v>207</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>15</v>
@@ -6994,10 +7018,10 @@
         <v>208</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>15</v>
@@ -7006,7 +7030,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="I216" s="4">
         <v>2000000000</v>
@@ -7017,10 +7041,10 @@
         <v>209</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>15</v>
@@ -7029,7 +7053,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="I217" s="4">
         <v>2000000000</v>
@@ -7040,10 +7064,10 @@
         <v>210</v>
       </c>
       <c r="B218" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C218" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>15</v>
@@ -7052,7 +7076,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="I218" s="4">
         <v>100000000</v>
@@ -7063,10 +7087,10 @@
         <v>211</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>15</v>
@@ -7086,10 +7110,10 @@
         <v>212</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>15</v>
@@ -7109,10 +7133,10 @@
         <v>213</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>15</v>
@@ -7121,7 +7145,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="I221" s="4">
         <v>20000000</v>
@@ -7132,10 +7156,10 @@
         <v>214</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>15</v>
@@ -7144,7 +7168,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="I222" s="4">
         <v>500000000</v>
@@ -7155,10 +7179,10 @@
         <v>215</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>15</v>
@@ -7167,7 +7191,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="I223" s="4">
         <v>200000000</v>
@@ -7178,10 +7202,10 @@
         <v>216</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>15</v>
@@ -7190,10 +7214,10 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="I224" s="4">
-        <v>2500000000</v>
+        <v>460</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7201,10 +7225,10 @@
         <v>217</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3" t="s">
@@ -7213,7 +7237,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="I225" s="4">
         <v>600000000</v>
@@ -7224,10 +7248,10 @@
         <v>218</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>15</v>
@@ -7236,7 +7260,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="I226" s="4">
         <v>1500000000</v>
@@ -7247,10 +7271,10 @@
         <v>219</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>15</v>
@@ -7259,7 +7283,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="I227" s="4">
         <v>750000000</v>
@@ -7270,10 +7294,10 @@
         <v>220</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>15</v>
@@ -7282,7 +7306,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="I228" s="4">
         <v>500000000</v>
@@ -7293,10 +7317,10 @@
         <v>221</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>15</v>
@@ -7305,7 +7329,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="I229" s="4">
         <v>800000000</v>
@@ -7316,10 +7340,10 @@
         <v>222</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>15</v>
@@ -7328,7 +7352,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="I230" s="4">
         <v>200000000</v>
@@ -7339,10 +7363,10 @@
         <v>223</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -7351,7 +7375,7 @@
         <v>15</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="I231" s="4">
         <v>150000000</v>
@@ -7362,10 +7386,10 @@
         <v>224</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>15</v>
@@ -7374,7 +7398,7 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="I232" s="4">
         <v>100000000</v>
@@ -7385,10 +7409,10 @@
         <v>225</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>15</v>
@@ -7397,7 +7421,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="I233" s="4">
         <v>20000000</v>
@@ -7408,10 +7432,10 @@
         <v>226</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3" t="s">
@@ -7429,10 +7453,10 @@
         <v>227</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>15</v>
@@ -7441,7 +7465,7 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="I235" s="4">
         <v>300000000</v>
@@ -7452,10 +7476,10 @@
         <v>228</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>15</v>
@@ -7464,7 +7488,7 @@
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="I236" s="4">
         <v>190000000</v>
@@ -7475,10 +7499,10 @@
         <v>229</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>15</v>
@@ -7487,7 +7511,7 @@
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="I237" s="4">
         <v>15000000</v>
@@ -7498,10 +7522,10 @@
         <v>230</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>15</v>
@@ -7521,10 +7545,10 @@
         <v>231</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>15</v>
@@ -7544,10 +7568,10 @@
         <v>232</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>15</v>
@@ -7556,7 +7580,7 @@
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="I240" s="4">
         <v>50000000</v>
@@ -7567,10 +7591,10 @@
         <v>233</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -7579,7 +7603,7 @@
       </c>
       <c r="G241" s="3"/>
       <c r="H241" s="3" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="I241" s="4">
         <v>50000000</v>
@@ -7590,10 +7614,10 @@
         <v>234</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>15</v>
@@ -7602,7 +7626,7 @@
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I242" s="4">
         <v>30000000</v>
@@ -7613,10 +7637,10 @@
         <v>235</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>15</v>
@@ -7625,7 +7649,7 @@
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="I243" s="4">
         <v>30000000</v>
@@ -7636,10 +7660,10 @@
         <v>236</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>15</v>
@@ -7648,7 +7672,7 @@
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="I244" s="4">
         <v>20000000</v>
@@ -7659,10 +7683,10 @@
         <v>237</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>15</v>
@@ -7671,7 +7695,7 @@
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="I245" s="4">
         <v>1000000000</v>
@@ -7682,10 +7706,10 @@
         <v>238</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>15</v>
@@ -7694,7 +7718,7 @@
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="I246" s="4">
         <v>144000000</v>
@@ -7705,10 +7729,10 @@
         <v>239</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>15</v>
@@ -7728,10 +7752,10 @@
         <v>240</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>15</v>
@@ -7740,7 +7764,7 @@
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="I248" s="4">
         <v>320000000</v>
@@ -7751,10 +7775,10 @@
         <v>241</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>15</v>
@@ -7763,7 +7787,7 @@
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="I249" s="4">
         <v>340000000</v>
@@ -7774,10 +7798,10 @@
         <v>242</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>15</v>
@@ -7788,8 +7812,8 @@
       <c r="H250" s="3">
         <v>1330</v>
       </c>
-      <c r="I250" s="4">
-        <v>2660000000</v>
+      <c r="I250" s="4" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7800,7 +7824,7 @@
         <v>17</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>15</v>
@@ -7809,7 +7833,7 @@
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="I251" s="4">
         <v>56000000</v>
@@ -7820,10 +7844,10 @@
         <v>244</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>15</v>
@@ -7832,7 +7856,7 @@
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="I252" s="4">
         <v>50000000</v>
@@ -7843,10 +7867,10 @@
         <v>245</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>15</v>
@@ -7866,10 +7890,10 @@
         <v>246</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>15</v>
@@ -7878,7 +7902,7 @@
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="I254" s="4">
         <v>25000000</v>
@@ -7889,10 +7913,10 @@
         <v>247</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>15</v>
@@ -7901,7 +7925,7 @@
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="I255" s="4">
         <v>64000000</v>
@@ -7912,10 +7936,10 @@
         <v>248</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>15</v>
@@ -7924,7 +7948,7 @@
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="I256" s="4">
         <v>20000000</v>
@@ -7935,10 +7959,10 @@
         <v>249</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>15</v>
@@ -7947,7 +7971,7 @@
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="I257" s="4">
         <v>1000000</v>
@@ -7958,10 +7982,10 @@
         <v>250</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>15</v>
@@ -7970,7 +7994,7 @@
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="I258" s="4">
         <v>12000000</v>
@@ -7981,10 +8005,10 @@
         <v>251</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>15</v>
@@ -7993,7 +8017,7 @@
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="I259" s="4">
         <v>10000000</v>
@@ -8004,10 +8028,10 @@
         <v>252</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>15</v>
@@ -8016,7 +8040,7 @@
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="I260" s="4">
         <v>10000000</v>
@@ -8027,10 +8051,10 @@
         <v>253</v>
       </c>
       <c r="B261" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C261" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>15</v>
@@ -8039,7 +8063,7 @@
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="I261" s="4">
         <v>15000000</v>
@@ -8050,10 +8074,10 @@
         <v>254</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>15</v>
@@ -8073,10 +8097,10 @@
         <v>255</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>15</v>
@@ -8085,7 +8109,7 @@
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="I263" s="4">
         <v>50000000</v>
@@ -8096,10 +8120,10 @@
         <v>256</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>15</v>
@@ -8108,7 +8132,7 @@
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="I264" s="4">
         <v>15000000</v>
@@ -8119,10 +8143,10 @@
         <v>257</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>15</v>
@@ -8131,7 +8155,7 @@
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="I265" s="4">
         <v>280000000</v>
@@ -8142,10 +8166,10 @@
         <v>258</v>
       </c>
       <c r="B266" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C266" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>15</v>
@@ -8154,7 +8178,7 @@
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="I266" s="4">
         <v>300000000</v>
@@ -8165,10 +8189,10 @@
         <v>259</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>15</v>
@@ -8177,7 +8201,7 @@
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="I267" s="4">
         <v>630000000</v>
@@ -8188,10 +8212,10 @@
         <v>260</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>15</v>
@@ -8200,7 +8224,7 @@
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="I268" s="4">
         <v>300000000</v>
@@ -8211,10 +8235,10 @@
         <v>261</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>15</v>
@@ -8223,7 +8247,7 @@
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="I269" s="4">
         <v>280000000</v>
@@ -8234,10 +8258,10 @@
         <v>262</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>15</v>
@@ -8246,7 +8270,7 @@
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="I270" s="4">
         <v>280000000</v>
@@ -8257,10 +8281,10 @@
         <v>263</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -8269,7 +8293,7 @@
       </c>
       <c r="G271" s="3"/>
       <c r="H271" s="3" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="I271" s="4">
         <v>850000000</v>
@@ -8280,10 +8304,10 @@
         <v>264</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>15</v>
@@ -8292,7 +8316,7 @@
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="I272" s="4">
         <v>32550000</v>
@@ -8303,10 +8327,10 @@
         <v>265</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -8315,7 +8339,7 @@
       </c>
       <c r="G273" s="3"/>
       <c r="H273" s="3" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="I273" s="4">
         <v>400000000</v>
@@ -8326,10 +8350,10 @@
         <v>266</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>15</v>
@@ -8338,7 +8362,7 @@
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
       <c r="H274" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="I274" s="4">
         <v>820000000</v>
@@ -8352,7 +8376,7 @@
         <v>17</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>15</v>
@@ -8361,7 +8385,7 @@
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
       <c r="H275" s="3" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="I275" s="4">
         <v>50000000</v>
@@ -8372,10 +8396,10 @@
         <v>268</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>15</v>
@@ -8384,7 +8408,7 @@
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
       <c r="H276" s="3" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="I276" s="4">
         <v>120000000</v>
@@ -8395,10 +8419,10 @@
         <v>269</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>15</v>
@@ -8407,7 +8431,7 @@
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="H277" s="3" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="I277" s="4">
         <v>350000000</v>
@@ -8418,10 +8442,10 @@
         <v>270</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>15</v>
@@ -8430,7 +8454,7 @@
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
       <c r="H278" s="3" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="I278" s="4">
         <v>1000000000</v>
@@ -8441,10 +8465,10 @@
         <v>271</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>15</v>
@@ -8464,10 +8488,10 @@
         <v>272</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>15</v>
@@ -8487,10 +8511,10 @@
         <v>273</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>15</v>
@@ -8499,7 +8523,7 @@
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="I281" s="4">
         <v>200000000</v>
@@ -8510,10 +8534,10 @@
         <v>274</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>15</v>
@@ -8533,10 +8557,10 @@
         <v>275</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>15</v>
@@ -8556,10 +8580,10 @@
         <v>276</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>15</v>
@@ -8568,10 +8592,10 @@
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
       <c r="H284" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="I284" s="4">
-        <v>2393000000</v>
+        <v>565</v>
+      </c>
+      <c r="I284" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -8579,10 +8603,10 @@
         <v>277</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>15</v>
@@ -8602,10 +8626,10 @@
         <v>278</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>15</v>
@@ -8625,10 +8649,10 @@
         <v>279</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>15</v>
@@ -8637,7 +8661,7 @@
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
       <c r="H287" s="3" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="I287" s="4">
         <v>50000000</v>
@@ -8648,10 +8672,10 @@
         <v>280</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>15</v>
@@ -8671,10 +8695,10 @@
         <v>281</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>15</v>
@@ -8694,10 +8718,10 @@
         <v>282</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>15</v>
@@ -8717,10 +8741,10 @@
         <v>283</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>15</v>
@@ -8729,7 +8753,7 @@
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="I291" s="4">
         <v>100000000</v>
@@ -8740,10 +8764,10 @@
         <v>284</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>15</v>
@@ -8763,10 +8787,10 @@
         <v>285</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>15</v>
@@ -8786,10 +8810,10 @@
         <v>286</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>15</v>
@@ -8798,7 +8822,7 @@
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="H294" s="3" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="I294" s="4">
         <v>200000000</v>
@@ -8809,10 +8833,10 @@
         <v>287</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>15</v>
@@ -8821,7 +8845,7 @@
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="I295" s="4">
         <v>300000000</v>
@@ -8832,10 +8856,10 @@
         <v>288</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>15</v>
@@ -8844,7 +8868,7 @@
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="3" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="I296" s="4">
         <v>120000000</v>
@@ -8855,10 +8879,10 @@
         <v>289</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>15</v>
@@ -8875,13 +8899,13 @@
     </row>
     <row r="300" spans="1:9">
       <c r="H300" s="5" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="I300" s="5"/>
     </row>
     <row r="301" spans="1:9">
       <c r="H301" s="5" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="I301" s="5"/>
     </row>
@@ -8899,7 +8923,7 @@
     </row>
     <row r="305" spans="1:9">
       <c r="H305" s="5" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="I305" s="5"/>
     </row>
